--- a/data/trans_camb/P2A_enfcro_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_enfcro_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,23; 20,76</t>
+          <t>4,12; 21,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>50,75; 62,79</t>
+          <t>50,57; 62,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,06; 24,67</t>
+          <t>7,24; 24,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,54; 55,18</t>
+          <t>42,74; 55,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,68; 20,65</t>
+          <t>8,35; 20,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>48,72; 57,51</t>
+          <t>48,83; 57,57</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,92; 54,5</t>
+          <t>9,45; 58,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>104,86; 169,87</t>
+          <t>104,23; 171,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,64; 54,49</t>
+          <t>12,66; 52,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>77,64; 123,41</t>
+          <t>75,67; 124,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,61; 48,32</t>
+          <t>17,21; 48,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>95,2; 136,36</t>
+          <t>96,1; 136,87</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 14,13</t>
+          <t>1,35; 14,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,16; 17,99</t>
+          <t>5,1; 18,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>46,89; 56,9</t>
+          <t>46,56; 56,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 13,03</t>
+          <t>2,01; 13,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 14,91</t>
+          <t>3,17; 14,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,97; 41,23</t>
+          <t>31,76; 40,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 12,11</t>
+          <t>3,28; 12,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,41; 14,87</t>
+          <t>6,32; 15,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>40,3; 47,34</t>
+          <t>40,28; 47,36</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 34,83</t>
+          <t>3,09; 33,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,64; 43,66</t>
+          <t>10,92; 44,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94,85; 139,25</t>
+          <t>94,94; 139,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 22,42</t>
+          <t>3,25; 23,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,57; 25,59</t>
+          <t>4,71; 24,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,33; 72,2</t>
+          <t>48,17; 70,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 23,8</t>
+          <t>6,02; 23,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,23; 28,9</t>
+          <t>11,17; 29,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71,46; 94,35</t>
+          <t>71,37; 93,84</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,1; 22,14</t>
+          <t>7,11; 22,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 14,68</t>
+          <t>-0,4; 15,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>47,59; 59,19</t>
+          <t>48,29; 59,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 7,82</t>
+          <t>-7,03; 7,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 0,94</t>
+          <t>-13,43; 1,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,87; 34,59</t>
+          <t>24,17; 34,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,89; 12,51</t>
+          <t>2,41; 13,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 5,71</t>
+          <t>-4,97; 5,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>37,04; 45,15</t>
+          <t>36,76; 44,86</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,41; 54,67</t>
+          <t>14,94; 56,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 35,67</t>
+          <t>-0,85; 36,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>95,5; 152,18</t>
+          <t>96,23; 152,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 12,01</t>
+          <t>-10,05; 11,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,16; 1,53</t>
+          <t>-18,59; 2,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>33,23; 55,64</t>
+          <t>33,19; 54,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,15; 23,35</t>
+          <t>4,01; 25,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 10,74</t>
+          <t>-8,34; 10,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>61,66; 85,35</t>
+          <t>60,13; 84,72</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,79; 14,59</t>
+          <t>2,12; 15,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 14,37</t>
+          <t>-1,94; 13,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>42,15; 52,98</t>
+          <t>41,99; 52,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 11,01</t>
+          <t>-0,54; 10,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 8,37</t>
+          <t>-4,5; 8,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,94; 29,78</t>
+          <t>11,68; 28,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,39; 11,51</t>
+          <t>2,41; 11,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 9,09</t>
+          <t>-0,66; 9,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>28,07; 39,12</t>
+          <t>28,02; 38,91</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,36; 32,02</t>
+          <t>3,85; 33,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 29,82</t>
+          <t>-3,53; 29,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>74,48; 114,98</t>
+          <t>74,63; 115,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 17,42</t>
+          <t>-0,75; 16,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 13,04</t>
+          <t>-6,3; 12,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>19,34; 45,98</t>
+          <t>18,75; 44,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,86; 20,15</t>
+          <t>3,75; 19,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 16,24</t>
+          <t>-1,12; 17,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>45,65; 69,0</t>
+          <t>46,51; 69,31</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 16,96</t>
+          <t>-1,89; 17,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 13,63</t>
+          <t>-5,59; 14,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>44,95; 58,63</t>
+          <t>44,56; 58,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,83; 28,73</t>
+          <t>11,23; 27,99</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 7,79</t>
+          <t>-10,25; 8,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>30,41; 44,12</t>
+          <t>30,84; 44,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,19; 20,34</t>
+          <t>6,88; 20,4</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 8,85</t>
+          <t>-5,49; 8,51</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>39,48; 49,24</t>
+          <t>39,11; 49,69</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 39,61</t>
+          <t>-4,05; 39,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 32,1</t>
+          <t>-10,56; 33,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>82,95; 143,68</t>
+          <t>80,9; 144,33</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,96; 51,72</t>
+          <t>17,09; 49,85</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 13,24</t>
+          <t>-15,43; 14,2</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>44,23; 80,06</t>
+          <t>45,17; 80,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>12,33; 39,5</t>
+          <t>11,9; 40,11</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 17,57</t>
+          <t>-9,34; 16,6</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>66,02; 97,55</t>
+          <t>64,88; 99,82</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,72; 20,78</t>
+          <t>3,85; 20,41</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 7,01</t>
+          <t>-10,96; 5,86</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>41,27; 54,25</t>
+          <t>41,11; 53,64</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,69; 20,65</t>
+          <t>4,89; 20,71</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-14,32; 2,35</t>
+          <t>-14,91; 2,81</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>27,36; 39,46</t>
+          <t>28,01; 39,75</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,01; 18,51</t>
+          <t>6,99; 18,73</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 2,14</t>
+          <t>-9,69; 2,3</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>36,12; 44,95</t>
+          <t>36,32; 44,9</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>7,03; 45,95</t>
+          <t>6,91; 44,36</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 15,92</t>
+          <t>-20,1; 12,79</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>73,19; 123,18</t>
+          <t>73,01; 121,06</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>8,5; 34,55</t>
+          <t>6,97; 34,74</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 3,81</t>
+          <t>-21,82; 4,47</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>39,54; 67,94</t>
+          <t>40,41; 68,6</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>11,5; 34,31</t>
+          <t>11,67; 34,7</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 3,97</t>
+          <t>-16,23; 4,34</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>58,89; 84,49</t>
+          <t>59,72; 84,62</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>7,63; 19,29</t>
+          <t>7,65; 19,18</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 4,34</t>
+          <t>-6,49; 4,99</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>47,57; 56,44</t>
+          <t>47,67; 56,51</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,23; 13,12</t>
+          <t>3,19; 13,59</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 0,44</t>
+          <t>-10,98; -0,08</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>32,54; 40,18</t>
+          <t>32,36; 40,64</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,67; 14,77</t>
+          <t>6,54; 14,54</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 0,81</t>
+          <t>-7,26; 1,08</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>40,89; 46,97</t>
+          <t>40,9; 46,96</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>15,76; 45,86</t>
+          <t>15,62; 45,48</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 10,79</t>
+          <t>-13,51; 12,12</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>96,58; 138,31</t>
+          <t>97,89; 137,81</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>5,14; 22,78</t>
+          <t>4,96; 23,83</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 0,73</t>
+          <t>-17,25; -0,15</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>50,9; 71,18</t>
+          <t>50,74; 71,83</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>12,03; 29,01</t>
+          <t>11,71; 28,58</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 1,57</t>
+          <t>-13,08; 2,16</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>73,61; 93,61</t>
+          <t>73,67; 94,46</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 2,07</t>
+          <t>-8,58; 2,12</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 5,23</t>
+          <t>-5,69; 5,28</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>39,61; 47,76</t>
+          <t>39,34; 47,66</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 1,59</t>
+          <t>-7,69; 2,06</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 3,6</t>
+          <t>-6,55; 3,64</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>28,2; 36,12</t>
+          <t>27,71; 36,08</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 0,95</t>
+          <t>-7,14; 0,4</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 2,86</t>
+          <t>-4,08; 2,9</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>34,91; 40,49</t>
+          <t>34,72; 40,77</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 4,38</t>
+          <t>-16,24; 4,52</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 11,38</t>
+          <t>-10,81; 10,91</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>75,16; 102,89</t>
+          <t>74,53; 102,68</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 2,93</t>
+          <t>-12,06; 3,6</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 6,27</t>
+          <t>-10,56; 6,08</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>43,87; 62,78</t>
+          <t>42,62; 62,49</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 1,84</t>
+          <t>-12,6; 0,65</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 5,32</t>
+          <t>-7,22; 5,44</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>60,57; 76,52</t>
+          <t>59,89; 77,19</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>5,69; 10,67</t>
+          <t>5,69; 10,66</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,53</t>
+          <t>1,36; 6,52</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>48,02; 51,62</t>
+          <t>47,76; 51,61</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>4,44; 9,12</t>
+          <t>4,48; 9,17</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,65</t>
+          <t>-2,07; 2,7</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>31,81; 35,71</t>
+          <t>31,93; 35,82</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>5,82; 9,24</t>
+          <t>5,9; 9,23</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,08</t>
+          <t>0,6; 3,96</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>40,24; 43,07</t>
+          <t>40,37; 43,15</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>12,08; 23,28</t>
+          <t>11,75; 23,33</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>3,75; 14,25</t>
+          <t>2,83; 14,27</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>98,71; 114,17</t>
+          <t>97,87; 113,41</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>7,06; 15,05</t>
+          <t>7,07; 15,2</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 4,41</t>
+          <t>-3,25; 4,45</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>49,96; 58,89</t>
+          <t>50,29; 59,35</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>10,52; 17,26</t>
+          <t>10,49; 17,12</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,53</t>
+          <t>1,07; 7,36</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>72,1; 80,72</t>
+          <t>72,49; 80,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_enfcro_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_enfcro_R-Provincia-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>18,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,95</t>
+          <t>11,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>56,96</t>
+          <t>17,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>26,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,32</t>
+          <t>15,13</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>48,93</t>
+          <t>18,23</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>22,49</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,68</t>
+          <t>13,26</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>53,04</t>
+          <t>17,78</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,91; 26,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,12; 21,45</t>
+          <t>2,36; 20,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>50,57; 62,77</t>
+          <t>8,68; 26,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,91; 35,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 24,39</t>
+          <t>6,56; 23,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>42,74; 55,37</t>
+          <t>10,38; 25,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,7; 28,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,35; 20,71</t>
+          <t>7,22; 19,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>48,83; 57,57</t>
+          <t>11,6; 24,0</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>134,28%</t>
+          <t>41,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>30,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>36,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>28,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>114,19%</t>
+          <t>38,86%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,01; 70,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,45; 58,28</t>
+          <t>5,62; 55,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>104,23; 171,66</t>
+          <t>18,24; 70,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,64; 77,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,66; 52,87</t>
+          <t>11,72; 52,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>75,67; 124,88</t>
+          <t>19,11; 58,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,02; 66,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,21; 48,07</t>
+          <t>14,59; 44,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>96,1; 136,87</t>
+          <t>24,2; 57,21</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>10,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,05</t>
+          <t>15,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>52,06</t>
+          <t>-7,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,97</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,01</t>
+          <t>9,86</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>36,21</t>
+          <t>-22,13</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,83</t>
+          <t>9,49</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,58</t>
+          <t>12,82</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>44,06</t>
+          <t>-14,92</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 14,0</t>
+          <t>4,05; 16,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,1; 18,35</t>
+          <t>9,26; 21,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>46,56; 56,96</t>
+          <t>-14,41; -1,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 13,72</t>
+          <t>2,49; 14,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 14,33</t>
+          <t>3,91; 15,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,76; 40,53</t>
+          <t>-27,92; -16,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 12,24</t>
+          <t>5,06; 13,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 15,1</t>
+          <t>8,24; 16,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>40,28; 47,36</t>
+          <t>-19,38; -9,98</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>26,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>38,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>116,02%</t>
+          <t>-18,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>58,5%</t>
+          <t>-36,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>82,39%</t>
+          <t>-29,65%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 33,69</t>
+          <t>9,16; 44,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,92; 44,18</t>
+          <t>21,15; 59,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94,94; 139,79</t>
+          <t>-33,31; -3,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,25; 23,58</t>
+          <t>3,95; 24,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 24,49</t>
+          <t>6,2; 27,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,17; 70,2</t>
+          <t>-43,83; -28,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,02; 23,95</t>
+          <t>9,58; 28,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,17; 29,62</t>
+          <t>15,48; 36,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71,37; 93,84</t>
+          <t>-37,33; -21,36</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14,47</t>
+          <t>15,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>53,75</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>-7,01</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>29,11</t>
+          <t>-22,38</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,47</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>41,08</t>
+          <t>-12,9</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,11; 22,5</t>
+          <t>7,92; 22,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 15,02</t>
+          <t>-0,68; 14,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>48,29; 59,66</t>
+          <t>-10,57; 4,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 7,49</t>
+          <t>-7,9; 6,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 1,32</t>
+          <t>-13,64; 1,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,17; 34,42</t>
+          <t>-28,94; -15,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 13,38</t>
+          <t>2,07; 13,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 5,79</t>
+          <t>-5,22; 5,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>36,76; 44,86</t>
+          <t>-18,18; -7,84</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>34,55%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>120,32%</t>
+          <t>-6,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>-0,08%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-9,46%</t>
+          <t>-10,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>42,94%</t>
+          <t>-33,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>72,68%</t>
+          <t>-23,07%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,94; 56,81</t>
+          <t>16,86; 59,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 36,66</t>
+          <t>-1,47; 37,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96,23; 152,58</t>
+          <t>-22,81; 11,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 11,59</t>
+          <t>-11,12; 10,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,59; 2,2</t>
+          <t>-19,15; 1,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>33,19; 54,72</t>
+          <t>-41,07; -24,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,01; 25,06</t>
+          <t>3,46; 24,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 10,82</t>
+          <t>-8,81; 10,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>60,13; 84,72</t>
+          <t>-30,47; -14,56</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,71</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>47,61</t>
+          <t>-9,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,23</t>
+          <t>-30,19</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>34,79</t>
+          <t>-20,23</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 15,35</t>
+          <t>-0,85; 13,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 13,54</t>
+          <t>-3,06; 12,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>41,99; 52,94</t>
+          <t>-18,63; -1,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 10,84</t>
+          <t>-5,24; 7,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 8,11</t>
+          <t>-5,45; 7,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,68; 28,93</t>
+          <t>-46,65; -19,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 11,45</t>
+          <t>-1,04; 9,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 9,75</t>
+          <t>-1,56; 8,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>28,02; 38,91</t>
+          <t>-30,72; -13,11</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>93,59%</t>
+          <t>-18,79%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>33,94%</t>
+          <t>-43,86%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>58,16%</t>
+          <t>-33,84%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,85; 33,56</t>
+          <t>-1,53; 29,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 29,58</t>
+          <t>-5,47; 26,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>74,63; 115,16</t>
+          <t>-34,11; -4,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 16,8</t>
+          <t>-7,32; 12,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 12,64</t>
+          <t>-7,47; 10,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,75; 44,18</t>
+          <t>-68,38; -28,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,75; 19,77</t>
+          <t>-1,67; 15,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 17,49</t>
+          <t>-2,55; 15,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>46,51; 69,31</t>
+          <t>-50,86; -22,8</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7,35</t>
+          <t>9,91</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>51,5</t>
+          <t>-33,53</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>20,15</t>
+          <t>22,22</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>37,21</t>
+          <t>-47,77</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>13,89</t>
+          <t>16,21</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>44,27</t>
+          <t>-40,77</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 17,23</t>
+          <t>0,27; 19,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 14,56</t>
+          <t>-1,62; 18,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>44,56; 58,75</t>
+          <t>-42,25; -26,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,23; 27,99</t>
+          <t>13,64; 31,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 8,13</t>
+          <t>-5,95; 12,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>30,84; 44,26</t>
+          <t>-56,8; -39,72</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,88; 20,4</t>
+          <t>8,9; 22,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 8,51</t>
+          <t>-1,65; 12,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>39,11; 49,69</t>
+          <t>-46,6; -34,99</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>107,23%</t>
+          <t>-76,89%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>32,41%</t>
+          <t>38,75%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-1,52%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>59,85%</t>
+          <t>-83,29%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>32,06%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>80,24%</t>
+          <t>-80,65%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 39,69</t>
+          <t>0,56; 50,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 33,52</t>
+          <t>-3,22; 46,44</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>80,9; 144,33</t>
+          <t>-83,92; -66,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,09; 49,85</t>
+          <t>22,63; 59,79</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,43; 14,2</t>
+          <t>-9,33; 23,72</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>45,17; 80,32</t>
+          <t>-91,67; -76,98</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>11,9; 40,11</t>
+          <t>16,51; 50,1</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 16,6</t>
+          <t>-3,18; 26,91</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>64,88; 99,82</t>
+          <t>-86,98; -75,02</t>
         </is>
       </c>
     </row>
@@ -1717,42 +1717,42 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-5,46</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>47,54</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>13,37</t>
+          <t>13,34</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-5,48</t>
+          <t>-7,33</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>33,82</t>
+          <t>-13,02</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>12,91</t>
+          <t>12,89</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-3,97</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>40,59</t>
+          <t>-6,96</t>
         </is>
       </c>
     </row>
@@ -1770,42 +1770,42 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 5,86</t>
+          <t>-13,9; 3,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>41,11; 53,64</t>
+          <t>-8,61; 7,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,89; 20,71</t>
+          <t>4,59; 20,9</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 2,81</t>
+          <t>-16,54; 0,89</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>28,01; 39,75</t>
+          <t>-20,52; -5,43</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,99; 18,73</t>
+          <t>7,19; 18,52</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 2,3</t>
+          <t>-12,14; -0,22</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>36,32; 44,9</t>
+          <t>-13,04; -1,27</t>
         </is>
       </c>
     </row>
@@ -1823,42 +1823,42 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-4,93%</t>
+          <t>-10,88%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>-1,36%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>20,9%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-8,54%</t>
+          <t>-11,49%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>52,71%</t>
+          <t>-20,41%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-6,93%</t>
+          <t>-11,17%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>70,9%</t>
+          <t>-12,2%</t>
         </is>
       </c>
     </row>
@@ -1876,42 +1876,42 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 12,79</t>
+          <t>-25,66; 6,81</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>73,01; 121,06</t>
+          <t>-15,7; 16,95</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>6,97; 34,74</t>
+          <t>6,82; 35,76</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-21,82; 4,47</t>
+          <t>-24,31; 1,49</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>40,41; 68,6</t>
+          <t>-30,82; -9,05</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>11,67; 34,7</t>
+          <t>12,07; 34,59</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 4,34</t>
+          <t>-20,25; -0,41</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>59,72; 84,62</t>
+          <t>-21,91; -2,4</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>13,15</t>
+          <t>16,51</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>52,21</t>
+          <t>-19,11</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>8,24</t>
+          <t>9,08</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-5,16</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>36,46</t>
+          <t>-13,79</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>10,67</t>
+          <t>12,75</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>44,16</t>
+          <t>-14,89</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>7,65; 19,18</t>
+          <t>11,01; 22,44</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 4,99</t>
+          <t>-4,12; 7,13</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>47,67; 56,51</t>
+          <t>-24,93; -13,44</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,19; 13,59</t>
+          <t>3,87; 14,49</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-10,98; -0,08</t>
+          <t>-10,24; 0,94</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>32,36; 40,64</t>
+          <t>-33,06; 15,1</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,54; 14,54</t>
+          <t>8,68; 16,53</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 1,08</t>
+          <t>-5,33; 2,57</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>40,9; 46,96</t>
+          <t>-26,36; 10,31</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-2,49%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>116,62%</t>
+          <t>-46,48%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-8,59%</t>
+          <t>-7,38%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>60,72%</t>
+          <t>-23,63%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>25,55%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-5,96%</t>
+          <t>-2,96%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>84,05%</t>
+          <t>-29,84%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>15,62; 45,48</t>
+          <t>24,68; 58,76</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 12,12</t>
+          <t>-9,39; 18,65</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>97,89; 137,81</t>
+          <t>-56,92; -34,2</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>4,96; 23,83</t>
+          <t>6,26; 26,52</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-17,25; -0,15</t>
+          <t>-16,56; 1,7</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>50,74; 71,83</t>
+          <t>-55,86; 27,17</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>11,71; 28,58</t>
+          <t>16,51; 34,65</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 2,16</t>
+          <t>-10,39; 5,34</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>73,67; 94,46</t>
+          <t>-52,22; 21,3</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>43,73</t>
+          <t>-24,13</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>31,92</t>
+          <t>-16,92</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>37,67</t>
+          <t>-21,93</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 2,12</t>
+          <t>-8,44; 2,44</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 5,28</t>
+          <t>-3,34; 7,44</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>39,34; 47,66</t>
+          <t>-37,31; -14,48</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 2,06</t>
+          <t>-6,7; 3,37</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 3,64</t>
+          <t>-4,62; 5,55</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>27,71; 36,08</t>
+          <t>-21,62; -12,08</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 0,4</t>
+          <t>-6,3; 1,36</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 2,9</t>
+          <t>-2,43; 4,78</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>34,72; 40,77</t>
+          <t>-34,68; -15,44</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-5,63%</t>
+          <t>-5,11%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>87,89%</t>
+          <t>-52,31%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-4,88%</t>
+          <t>-3,2%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>-2,19%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>52,2%</t>
+          <t>-29,01%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>-5,19%</t>
+          <t>-4,0%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>-1,39%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>67,76%</t>
+          <t>-41,86%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 4,52</t>
+          <t>-17,25; 5,6</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 10,91</t>
+          <t>-6,74; 17,19</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>74,53; 102,68</t>
+          <t>-77,53; -32,06</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 3,6</t>
+          <t>-11,0; 6,04</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 6,08</t>
+          <t>-7,71; 9,86</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>42,62; 62,49</t>
+          <t>-35,79; -21,65</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 0,65</t>
+          <t>-11,48; 2,75</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 5,44</t>
+          <t>-4,56; 9,59</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>59,89; 77,19</t>
+          <t>-63,46; -29,6</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>8,25</t>
+          <t>9,51</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>49,73</t>
+          <t>-12,44</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>33,96</t>
+          <t>-18,24</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>8,34</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>41,71</t>
+          <t>-15,28</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>5,69; 10,66</t>
+          <t>6,9; 11,92</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>1,36; 6,52</t>
+          <t>2,69; 7,78</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>47,76; 51,61</t>
+          <t>-20,42; -9,09</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>4,48; 9,17</t>
+          <t>4,84; 9,48</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,7</t>
+          <t>-1,51; 3,33</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>31,93; 35,82</t>
+          <t>-22,49; -7,89</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>5,9; 9,23</t>
+          <t>6,67; 10,08</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,96</t>
+          <t>1,39; 4,82</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>40,37; 43,15</t>
+          <t>-19,24; -10,43</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>105,75%</t>
+          <t>-28,04%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>54,76%</t>
+          <t>-30,2%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>76,33%</t>
+          <t>-29,11%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>11,75; 23,33</t>
+          <t>15,06; 27,68</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>2,83; 14,27</t>
+          <t>5,84; 18,0</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>97,87; 113,41</t>
+          <t>-45,53; -20,72</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>7,07; 15,2</t>
+          <t>7,81; 16,09</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,45</t>
+          <t>-2,47; 5,6</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>50,29; 59,35</t>
+          <t>-37,05; -13,03</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>10,49; 17,12</t>
+          <t>12,43; 19,6</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>1,07; 7,36</t>
+          <t>2,59; 9,35</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>72,49; 80,87</t>
+          <t>-36,57; -19,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_enfcro_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_enfcro_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,91; 26,1</t>
+          <t>9,82; 25,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 20,36</t>
+          <t>3,13; 19,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,68; 26,24</t>
+          <t>8,87; 26,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,91; 35,13</t>
+          <t>18,83; 34,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,56; 23,69</t>
+          <t>6,8; 22,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,38; 25,75</t>
+          <t>9,66; 25,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,7; 28,14</t>
+          <t>17,22; 29,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,22; 19,16</t>
+          <t>7,19; 19,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,6; 24,0</t>
+          <t>12,51; 24,86</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,01; 70,38</t>
+          <t>21,31; 69,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 55,69</t>
+          <t>6,11; 52,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,24; 70,73</t>
+          <t>19,9; 70,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,64; 77,7</t>
+          <t>33,34; 77,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,72; 52,58</t>
+          <t>12,56; 50,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,11; 58,35</t>
+          <t>17,55; 57,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,02; 66,6</t>
+          <t>34,98; 68,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,59; 44,71</t>
+          <t>14,79; 47,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,2; 57,21</t>
+          <t>25,95; 59,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,05; 16,59</t>
+          <t>4,0; 16,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,26; 21,93</t>
+          <t>9,16; 21,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -1,12</t>
+          <t>-14,3; -0,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 14,09</t>
+          <t>1,93; 14,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 15,59</t>
+          <t>4,21; 15,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,92; -16,21</t>
+          <t>-27,45; -16,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 13,91</t>
+          <t>5,06; 13,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,24; 16,99</t>
+          <t>8,17; 17,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-19,38; -9,98</t>
+          <t>-19,78; -10,59</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,16; 44,58</t>
+          <t>9,55; 45,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,15; 59,78</t>
+          <t>21,13; 58,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,31; -3,02</t>
+          <t>-33,39; -1,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 24,81</t>
+          <t>3,04; 25,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 27,77</t>
+          <t>6,65; 28,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,83; -28,37</t>
+          <t>-43,53; -28,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,58; 28,93</t>
+          <t>9,63; 29,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,48; 36,09</t>
+          <t>15,48; 35,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-37,33; -21,36</t>
+          <t>-37,3; -21,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,92; 22,99</t>
+          <t>6,89; 22,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 14,72</t>
+          <t>-0,03; 14,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 4,54</t>
+          <t>-11,26; 4,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 6,45</t>
+          <t>-7,9; 7,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 1,11</t>
+          <t>-14,39; 0,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,94; -15,45</t>
+          <t>-29,05; -15,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 13,11</t>
+          <t>2,14; 12,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 5,7</t>
+          <t>-4,81; 6,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-18,18; -7,84</t>
+          <t>-18,2; -7,87</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,86; 59,65</t>
+          <t>14,67; 57,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 37,38</t>
+          <t>-0,99; 36,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 11,18</t>
+          <t>-23,89; 11,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 10,1</t>
+          <t>-11,13; 11,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,15; 1,8</t>
+          <t>-21,13; 0,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,07; -24,35</t>
+          <t>-41,38; -24,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,46; 24,91</t>
+          <t>3,45; 23,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 10,87</t>
+          <t>-8,35; 11,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-30,47; -14,56</t>
+          <t>-31,1; -14,7</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 13,67</t>
+          <t>-0,65; 13,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 12,07</t>
+          <t>-2,24; 12,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,63; -1,8</t>
+          <t>-17,55; -0,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 7,85</t>
+          <t>-5,44; 7,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 7,17</t>
+          <t>-6,21; 7,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-46,65; -19,28</t>
+          <t>-48,54; -19,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 9,12</t>
+          <t>-1,45; 8,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 8,82</t>
+          <t>-2,17; 8,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-30,72; -13,11</t>
+          <t>-30,67; -13,0</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 29,31</t>
+          <t>-1,34; 29,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 26,3</t>
+          <t>-3,66; 27,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-34,11; -4,15</t>
+          <t>-33,58; -0,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 12,08</t>
+          <t>-7,46; 11,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 10,96</t>
+          <t>-8,67; 11,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-68,38; -28,55</t>
+          <t>-66,93; -28,2</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 15,9</t>
+          <t>-2,27; 15,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 15,45</t>
+          <t>-3,4; 14,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-50,86; -22,8</t>
+          <t>-50,4; -22,36</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,27; 19,46</t>
+          <t>0,46; 20,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 18,18</t>
+          <t>-1,83; 18,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-42,25; -26,0</t>
+          <t>-40,61; -25,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,64; 31,12</t>
+          <t>13,89; 30,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 12,57</t>
+          <t>-6,38; 12,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-56,8; -39,72</t>
+          <t>-55,76; -39,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,9; 22,95</t>
+          <t>9,71; 23,17</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 12,45</t>
+          <t>-1,4; 12,37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-46,6; -34,99</t>
+          <t>-46,64; -35,25</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,56; 50,3</t>
+          <t>0,76; 51,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 46,44</t>
+          <t>-3,9; 46,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-83,92; -66,48</t>
+          <t>-84,25; -65,82</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>22,63; 59,79</t>
+          <t>22,54; 59,76</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 23,72</t>
+          <t>-10,18; 24,84</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-91,67; -76,98</t>
+          <t>-90,78; -76,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>16,51; 50,1</t>
+          <t>18,1; 49,7</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 26,91</t>
+          <t>-2,59; 26,41</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-86,98; -75,02</t>
+          <t>-86,82; -75,17</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,85; 20,41</t>
+          <t>4,36; 21,34</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 3,09</t>
+          <t>-13,97; 3,53</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 7,68</t>
+          <t>-8,65; 7,15</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,59; 20,9</t>
+          <t>5,5; 20,71</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 0,89</t>
+          <t>-15,27; 0,61</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-20,52; -5,43</t>
+          <t>-20,76; -5,44</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,19; 18,52</t>
+          <t>7,24; 18,6</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-12,14; -0,22</t>
+          <t>-12,32; -0,28</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-13,04; -1,27</t>
+          <t>-12,42; -1,24</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>6,91; 44,36</t>
+          <t>7,78; 47,2</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 6,81</t>
+          <t>-25,63; 8,12</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-15,7; 16,95</t>
+          <t>-16,49; 15,33</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>6,82; 35,76</t>
+          <t>7,83; 34,75</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 1,49</t>
+          <t>-22,45; 0,98</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-30,82; -9,05</t>
+          <t>-31,3; -9,29</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>12,07; 34,59</t>
+          <t>11,4; 34,13</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-20,25; -0,41</t>
+          <t>-20,94; -0,61</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-21,91; -2,4</t>
+          <t>-20,61; -2,21</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>11,01; 22,44</t>
+          <t>10,66; 21,92</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 7,13</t>
+          <t>-4,29; 7,39</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-24,93; -13,44</t>
+          <t>-24,49; -13,4</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,87; 14,49</t>
+          <t>3,43; 14,49</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 0,94</t>
+          <t>-9,49; 1,34</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-33,06; 15,1</t>
+          <t>-33,12; 13,21</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>8,68; 16,53</t>
+          <t>8,89; 16,53</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 2,57</t>
+          <t>-5,36; 2,85</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-26,36; 10,31</t>
+          <t>-26,48; 11,26</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>24,68; 58,76</t>
+          <t>23,45; 56,79</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 18,65</t>
+          <t>-10,21; 19,54</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-56,92; -34,2</t>
+          <t>-56,09; -34,13</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>6,26; 26,52</t>
+          <t>5,64; 26,21</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 1,7</t>
+          <t>-15,99; 2,23</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-55,86; 27,17</t>
+          <t>-55,94; 24,56</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>16,51; 34,65</t>
+          <t>17,03; 34,3</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 5,34</t>
+          <t>-10,33; 5,92</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-52,22; 21,3</t>
+          <t>-52,62; 23,05</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 2,44</t>
+          <t>-7,75; 3,09</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 7,44</t>
+          <t>-3,02; 7,44</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-37,31; -14,48</t>
+          <t>-38,0; -14,62</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 3,37</t>
+          <t>-7,03; 2,95</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 5,55</t>
+          <t>-4,94; 5,3</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-21,62; -12,08</t>
+          <t>-21,71; -12,28</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 1,36</t>
+          <t>-5,48; 1,59</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 4,78</t>
+          <t>-2,22; 4,73</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-34,68; -15,44</t>
+          <t>-33,19; -15,28</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 5,6</t>
+          <t>-15,98; 6,67</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 17,19</t>
+          <t>-6,22; 17,18</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-77,53; -32,06</t>
+          <t>-79,36; -32,63</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 6,04</t>
+          <t>-11,35; 5,16</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 9,86</t>
+          <t>-8,01; 9,41</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-35,79; -21,65</t>
+          <t>-35,99; -22,07</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 2,75</t>
+          <t>-10,14; 3,2</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 9,59</t>
+          <t>-3,97; 9,38</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-63,46; -29,6</t>
+          <t>-64,13; -29,52</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>6,9; 11,92</t>
+          <t>7,08; 12,12</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>2,69; 7,78</t>
+          <t>2,77; 7,95</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-20,42; -9,09</t>
+          <t>-19,08; -8,91</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>4,84; 9,48</t>
+          <t>4,98; 9,46</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 3,33</t>
+          <t>-1,57; 3,08</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-22,49; -7,89</t>
+          <t>-22,53; -7,55</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>6,67; 10,08</t>
+          <t>6,63; 10,07</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,82</t>
+          <t>1,37; 4,94</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-19,24; -10,43</t>
+          <t>-18,82; -9,31</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>15,06; 27,68</t>
+          <t>15,39; 28,18</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>5,84; 18,0</t>
+          <t>6,06; 18,5</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-45,53; -20,72</t>
+          <t>-42,66; -20,33</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>7,81; 16,09</t>
+          <t>8,12; 16,05</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 5,6</t>
+          <t>-2,52; 5,24</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-37,05; -13,03</t>
+          <t>-37,11; -12,58</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>12,43; 19,6</t>
+          <t>12,53; 19,61</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,35</t>
+          <t>2,62; 9,62</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-36,57; -19,86</t>
+          <t>-35,85; -17,9</t>
         </is>
       </c>
     </row>
